--- a/biology/Médecine/Jacques_Puel/Jacques_Puel.xlsx
+++ b/biology/Médecine/Jacques_Puel/Jacques_Puel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Pr Jacques Puel est un médecin ruthénois, né à Rodez le 23 septembre 1946 et mort à Toulouse le 23 juin 2008, spécialisé en cardiologie interventionnelle. 
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Puel nait le 23 septembre 1946 à Rodez.
 Il fait ses études et son internat de médecine à Toulouse. Il devient chef de clinique-assistant des hôpitaux de Toulouse en 1977. Il devient professeur en 1986.
-Internationalement reconnu pour ses qualités professionnelles[1], il fut le premier médecin à implanter une endoprothèse coronarienne, un « stent », sur un homme, en 1986[2],[3],[4],[5].
+Internationalement reconnu pour ses qualités professionnelles, il fut le premier médecin à implanter une endoprothèse coronarienne, un « stent », sur un homme, en 1986.
 En 1994, il devient le chef du sevice de cardiologie du centre hospitalo-universitaire de Toulouse.
-En hommage, son nom a été attribué à l'hôpital de Bourran à Rodez, devenant Hôpital Jacques-Puel[6].
+En hommage, son nom a été attribué à l'hôpital de Bourran à Rodez, devenant Hôpital Jacques-Puel.
 </t>
         </is>
       </c>
